--- a/sd_female_3.xlsx
+++ b/sd_female_3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
   <si>
     <t>MAV , CC</t>
   </si>
@@ -78,6 +78,9 @@
   <si>
     <t>Trace SD</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -324,6 +327,56 @@
         <v>8.244594188517306</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.154306892994686</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1112023304499845</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07123712606707715</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.064655555269883</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.4215522771697033</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>45.43409951233486</v>
+      </c>
+      <c r="T5" t="n">
+        <v>9.914466613010918</v>
+      </c>
+      <c r="W5" t="n">
+        <v>172.139341160339</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>97.87139071168504</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9959285185619074</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23.114704782193005</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.83628157246234</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6.147429240690809</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.524972519452716</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>36.83026347845688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -331,7 +384,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,6 +587,56 @@
         <v>0.6155395104206461</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.11529853278046091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1034864943903544</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.004001799931828284</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.4048400821974099</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.011093541587959756</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.2792894053081072</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1348644759340998</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.6156584594479029</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.13680570232291417</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9295891867224234</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.348418924199741</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.9769494909778146</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.4053206939813403</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.011054886751687469</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.3255879581418848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -541,7 +644,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,6 +847,56 @@
         <v>2.507987240796891</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.16059057061997437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0507485266184087</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0022235518727393073</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.482229962122087</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.005331521807312574</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.0962571734744102</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.16722982149269808</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.6377404704775291</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.16792303104292408</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.0529365696953445</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.421277731713888</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.0664074774498034</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.482409112760685</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.005301461726598909</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.3655936945884146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -751,7 +904,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,6 +1107,56 @@
         <v>2.644911256650316</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.16477344226305785</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0744464901139434</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.002944976810768537</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.5232379063440862</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.004880879433417712</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.1973267941506378</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.15136439811440996</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.6837750249851193</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.15287948872016108</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.216192164829363</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.853166571015041</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.2267400985992225</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.5234784300463657</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.004854580230177036</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.5672376730830857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -961,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,6 +1367,56 @@
         <v>4.465298297861957</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4931765969195976</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1115184023823093</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.009480393266740512</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.7013089484932027</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2597565156394172</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.6033815499945507</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3502068054831476</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.7420094908948744</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.5773466752557782</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.1320501468129593</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.455205363422793</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.7430388175005895</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.7026219163723613</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.25980442017212385</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3.899981591630041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1171,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1374,6 +1627,56 @@
         <v>3.8599078860626834</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.778651546504283</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.239687148922742</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.021151381908517022</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.278387067426647</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.8589246969121744</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>38.12618817949239</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.072356377039188</v>
+      </c>
+      <c r="W5" t="n">
+        <v>175.94370627389313</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>68.45665836448786</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.0742207519376896</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17.77087873493012</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.625762589572696</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.128724526576484</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.8354409245319687</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>33.36724411211135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1381,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,6 +1887,56 @@
         <v>6.0295568291173405</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.3196336050450999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9759968125507005</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.023416874326046198</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.522509364799354</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0393445002322443</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.745334710628497</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.272194177708998</v>
+      </c>
+      <c r="W5" t="n">
+        <v>21.338783156943332</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4.046479918000511</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.0493424011922834</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20.534267520877435</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.831528418602187</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5.54052439791813</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.0465232220578644</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>26.605043277293376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1591,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1794,6 +2147,56 @@
         <v>2.663331247391757</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.28179962686820587</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.178743790737091</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0034976056585707704</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.4143244121303535</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0904064341980267</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5377206022620946</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.260755523186761</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.611048733823788</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.3572589847361869</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.2732534020415534</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.10724399215796</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.6903186161766401</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.416730064079319</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.09046255309113342</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3.444080433328321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1801,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2004,6 +2407,56 @@
         <v>6.49991452935259</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.133774631939804</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1652407335691928</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09853701396441028</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.4505508992874185</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.8193108708637773</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>86.5388685488557</v>
+      </c>
+      <c r="T5" t="n">
+        <v>20.017540328398045</v>
+      </c>
+      <c r="W5" t="n">
+        <v>494.02153706491544</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>162.61386386530768</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.1190189668984065</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23.03946087100935</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.535360351849287</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6.195840236380481</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.7705272044709084</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>28.24841378072458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2011,7 +2464,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2214,6 +2667,56 @@
         <v>3.8339129996504733</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5239290316705555</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.116177023331469</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.010770989802998246</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.812727672366046</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.31078914676702507</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9747003633485865</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.43532388104730185</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.105023671883818</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.7929907685560226</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.200827449857407</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.90820066991404</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.0322816389335703</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.8144108482938166</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.3109281862828706</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.9831724864523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2221,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2424,6 +2927,56 @@
         <v>6.380177635980575</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.2639476980398672</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2022412992500808</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.026671691373149984</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.9291801022340005</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0200252602045674</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.1188426561717195</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9743375582807011</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14.206892768454884</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.960839068846642</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.2039375615594852</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>16.884764789247892</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.725471565922154</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.933874856875051</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.0218203405424908</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>13.8539841010148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2431,7 +2984,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2634,6 +3187,56 @@
         <v>0.9339283817414599</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.16366237168382508</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.063214515274985</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.004897061510710386</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.6610570352417107</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01765308465875603</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.260577466167938</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.13310242592892818</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.912658681947858</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.14404608853706938</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.8075596561739208</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.130855218471146</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.8919614410406935</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.6615573422571395</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.017618995793111093</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.465169069873765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
